--- a/20170117-community_social_media/builds/production/data/maindata.xlsx
+++ b/20170117-community_social_media/builds/production/data/maindata.xlsx
@@ -11,7 +11,7 @@
     <sheet name="groups" sheetId="2" r:id="rId2"/>
     <sheet name="source" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Timestamp</t>
   </si>
@@ -159,6 +159,24 @@
   </si>
   <si>
     <t>Source: Star Tribune analysis</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Star Tribune analysis</t>
+  </si>
+  <si>
+    <t>Community-based social media groups by city</t>
+  </si>
+  <si>
+    <t>groups</t>
   </si>
 </sst>
 </file>
@@ -169,7 +187,7 @@
     <numFmt numFmtId="164" formatCode="mmm\.\ yyyy"/>
     <numFmt numFmtId="165" formatCode="mmm\-d"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -186,6 +204,24 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -206,10 +242,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -224,8 +262,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -611,7 +652,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -640,7 +681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -669,7 +710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -698,7 +739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -727,7 +768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -756,7 +797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -783,7 +824,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -810,7 +851,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -837,7 +878,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -864,7 +905,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -891,7 +932,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -918,7 +959,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -959,26 +1000,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2017</v>
       </c>
     </row>
+    <row r="6" spans="1:3" s="8" customFormat="1">
+      <c r="A6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/20170117-community_social_media/builds/production/data/maindata.xlsx
+++ b/20170117-community_social_media/builds/production/data/maindata.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
-    <sheet name="groups" sheetId="2" r:id="rId2"/>
-    <sheet name="source" sheetId="3" r:id="rId3"/>
+    <sheet name="groups" sheetId="2" r:id="rId1"/>
+    <sheet name="source" sheetId="3" r:id="rId2"/>
+    <sheet name="layout" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,28 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Group Name</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Estimated members</t>
-  </si>
-  <si>
-    <t>Privacy</t>
-  </si>
-  <si>
-    <t>Date created</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -177,6 +156,33 @@
   </si>
   <si>
     <t>groups</t>
+  </si>
+  <si>
+    <t>Group name</t>
+  </si>
+  <si>
+    <t>Group city</t>
+  </si>
+  <si>
+    <t>Group state (MN)</t>
+  </si>
+  <si>
+    <t>Number of memers in group</t>
+  </si>
+  <si>
+    <t>Privacy (Public or Closed)</t>
+  </si>
+  <si>
+    <t>When group was created</t>
+  </si>
+  <si>
+    <t>City latitude coordinate</t>
+  </si>
+  <si>
+    <t>City longitude coordinate</t>
+  </si>
+  <si>
+    <t>Notes about group</t>
   </si>
 </sst>
 </file>
@@ -242,8 +248,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -264,9 +272,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -596,43 +606,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="7" width="21.5" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2643</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4">
+        <v>42005</v>
+      </c>
+      <c r="G2" s="5">
+        <v>44.79808044</v>
+      </c>
+      <c r="H2" s="5">
+        <v>-93.526657099999994</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1355</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4">
+        <v>42370</v>
+      </c>
+      <c r="G3" s="5">
+        <v>44.79808044</v>
+      </c>
+      <c r="H3" s="5">
+        <v>-93.526657099999994</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1820</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6">
+        <v>42841</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45.040958400000001</v>
+      </c>
+      <c r="H4" s="5">
+        <v>-93.256622309999997</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>184</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4">
+        <v>42675</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45.085098270000003</v>
+      </c>
+      <c r="H5" s="5">
+        <v>-93.26325989</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3089</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5">
+        <v>44.787189480000002</v>
+      </c>
+      <c r="H6" s="5">
+        <v>-93.601821900000004</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7725</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4">
+        <v>40756</v>
+      </c>
+      <c r="G7" s="5">
+        <v>44.89715958</v>
+      </c>
+      <c r="H7" s="5">
+        <v>-93.085403439999993</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3">
+        <v>607</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6">
+        <v>42809</v>
+      </c>
+      <c r="G8" s="5">
+        <v>45.004089360000002</v>
+      </c>
+      <c r="H8" s="5">
+        <v>-92.879783630000006</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1560</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="5">
+        <v>45.063240049999997</v>
+      </c>
+      <c r="H9" s="5">
+        <v>-93.193122860000003</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3">
+        <v>181</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4">
+        <v>42217</v>
+      </c>
+      <c r="G10" s="5">
+        <v>45.063240049999997</v>
+      </c>
+      <c r="H10" s="5">
+        <v>-93.193122860000003</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4208</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="5">
+        <v>44.83242035</v>
+      </c>
+      <c r="H11" s="5">
+        <v>-93.062698359999999</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1030</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6">
+        <v>42808</v>
+      </c>
+      <c r="G12" s="5">
+        <v>45.392379759999997</v>
+      </c>
+      <c r="H12" s="5">
+        <v>-93.368888850000005</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -643,366 +964,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2643</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="4">
-        <v>42005</v>
-      </c>
-      <c r="G2" s="5">
-        <v>44.79808044</v>
-      </c>
-      <c r="H2" s="5">
-        <v>-93.526657099999994</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1355</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4">
-        <v>42370</v>
-      </c>
-      <c r="G3" s="5">
-        <v>44.79808044</v>
-      </c>
-      <c r="H3" s="5">
-        <v>-93.526657099999994</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1820</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="6">
-        <v>42841</v>
-      </c>
-      <c r="G4" s="5">
-        <v>45.040958400000001</v>
-      </c>
-      <c r="H4" s="5">
-        <v>-93.256622309999997</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3">
-        <v>184</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4">
-        <v>42675</v>
-      </c>
-      <c r="G5" s="5">
-        <v>45.085098270000003</v>
-      </c>
-      <c r="H5" s="5">
-        <v>-93.26325989</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3089</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="5">
-        <v>44.787189480000002</v>
-      </c>
-      <c r="H6" s="5">
-        <v>-93.601821900000004</v>
-      </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3">
-        <v>7725</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4">
-        <v>40756</v>
-      </c>
-      <c r="G7" s="5">
-        <v>44.89715958</v>
-      </c>
-      <c r="H7" s="5">
-        <v>-93.085403439999993</v>
-      </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3">
-        <v>607</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="6">
-        <v>42809</v>
-      </c>
-      <c r="G8" s="5">
-        <v>45.004089360000002</v>
-      </c>
-      <c r="H8" s="5">
-        <v>-92.879783630000006</v>
-      </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1560</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="5">
-        <v>45.063240049999997</v>
-      </c>
-      <c r="H9" s="5">
-        <v>-93.193122860000003</v>
-      </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3">
-        <v>181</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="4">
-        <v>42217</v>
-      </c>
-      <c r="G10" s="5">
-        <v>45.063240049999997</v>
-      </c>
-      <c r="H10" s="5">
-        <v>-93.193122860000003</v>
-      </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4208</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="5">
-        <v>44.83242035</v>
-      </c>
-      <c r="H11" s="5">
-        <v>-93.062698359999999</v>
-      </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1030</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="6">
-        <v>42808</v>
-      </c>
-      <c r="G12" s="5">
-        <v>45.392379759999997</v>
-      </c>
-      <c r="H12" s="5">
-        <v>-93.368888850000005</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1014,7 +978,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1024,24 +988,24 @@
     </row>
     <row r="6" spans="1:3" s="8" customFormat="1">
       <c r="A6" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1053,4 +1017,101 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>